--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -546,34 +546,34 @@
         <v>0.719660391922429</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N2">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q2">
-        <v>0.1367781780165555</v>
+        <v>0.02164331996544444</v>
       </c>
       <c r="R2">
-        <v>1.231003602149</v>
+        <v>0.194789879689</v>
       </c>
       <c r="S2">
-        <v>0.00152990973478679</v>
+        <v>0.0002425217724492651</v>
       </c>
       <c r="T2">
-        <v>0.00152990973478679</v>
+        <v>0.0002425217724492651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>77.839292</v>
       </c>
       <c r="O3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q3">
         <v>54.20355531159422</v>
@@ -632,10 +632,10 @@
         <v>487.831997804348</v>
       </c>
       <c r="S3">
-        <v>0.6062849215700535</v>
+        <v>0.6073718047049934</v>
       </c>
       <c r="T3">
-        <v>0.6062849215700536</v>
+        <v>0.6073718047049935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>14.359551</v>
       </c>
       <c r="O4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q4">
         <v>9.999303653457666</v>
@@ -694,10 +694,10 @@
         <v>89.993732881119</v>
       </c>
       <c r="S4">
-        <v>0.1118455606175886</v>
+        <v>0.1120460654449862</v>
       </c>
       <c r="T4">
-        <v>0.1118455606175887</v>
+        <v>0.1120460654449863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8137800000000001</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H5">
         <v>2.44134</v>
       </c>
       <c r="I5">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J5">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N5">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O5">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P5">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q5">
-        <v>0.05328116046</v>
+        <v>0.00843103206</v>
       </c>
       <c r="R5">
-        <v>0.4795304441400001</v>
+        <v>0.07587928853999999</v>
       </c>
       <c r="S5">
-        <v>0.0005959676262000245</v>
+        <v>9.447297558934328E-05</v>
       </c>
       <c r="T5">
-        <v>0.0005959676262000245</v>
+        <v>9.447297558934328E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8137800000000001</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H6">
         <v>2.44134</v>
       </c>
       <c r="I6">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J6">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>77.839292</v>
       </c>
       <c r="O6">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P6">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q6">
         <v>21.11468634792</v>
@@ -818,10 +818,10 @@
         <v>190.03217713128</v>
       </c>
       <c r="S6">
-        <v>0.2361748391380278</v>
+        <v>0.2365982282747583</v>
       </c>
       <c r="T6">
-        <v>0.2361748391380278</v>
+        <v>0.2365982282747583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8137800000000001</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H7">
         <v>2.44134</v>
       </c>
       <c r="I7">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J7">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.359551</v>
       </c>
       <c r="O7">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P7">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q7">
         <v>3.89517180426</v>
@@ -880,10 +880,10 @@
         <v>35.05654623834</v>
       </c>
       <c r="S7">
-        <v>0.04356880131334322</v>
+        <v>0.04364690682722337</v>
       </c>
       <c r="T7">
-        <v>0.04356880131334322</v>
+        <v>0.04364690682722338</v>
       </c>
     </row>
   </sheetData>
